--- a/assets/excel/Data ulasan.xlsx
+++ b/assets/excel/Data ulasan.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t>ID Ulasan</t>
   </si>
@@ -29,13 +29,16 @@
     <t>Rating</t>
   </si>
   <si>
-    <t>Waktu</t>
+    <t>Tanggal</t>
+  </si>
+  <si>
+    <t>Jam</t>
   </si>
   <si>
     <t>Sangat Baik</t>
   </si>
   <si>
-    <t>2023-01-05 08:00:00</t>
+    <t>12:15:00</t>
   </si>
 </sst>
 </file>
@@ -374,7 +377,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -382,7 +385,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -398,22 +401,25 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2">
-        <v>2</v>
+        <v>45903049</v>
       </c>
       <c r="B2">
-        <v>23356790</v>
+        <v>23356793</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
